--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleMachineInfiniteBus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404535C4-713C-409B-9093-F7779191CCC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7181D8-54D8-4303-BC64-A6E06D11C40B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -108,18 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Notes:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All self branch HAT TO be set, even with a very small value of G.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +247,22 @@
   </si>
   <si>
     <t>Enable_Parcitipation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,12 +631,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -671,10 +671,10 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -764,13 +764,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.9296875" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" customWidth="1"/>
     <col min="3" max="3" width="13.9296875" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
@@ -783,23 +783,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -865,22 +865,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -890,7 +890,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -904,16 +904,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -950,47 +950,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1013,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1088,17 +1088,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <f>B4*1000</f>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1140,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1151,17 +1151,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7181D8-54D8-4303-BC64-A6E06D11C40B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C331B8-60BC-4C8E-94AF-DC61FCD14D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,165 +104,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Notes:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branches can be listed in arbitrary order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for power flow analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samping frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linearization Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discre Damping Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectFeedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zbranch = R+wL+1/(wC+G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self branch HAS TO be GC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutual branch HAS TO be RL.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All self branch HAT TO be set, even with a very small value of G.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added between FromBus and Zbranch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_SimulinkModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotPole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotAdmittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheets summaries advanced settings for the toolbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Power (VA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Voltage (V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes basic settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PrintOutput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Flow Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area No.</t>
+  </si>
+  <si>
+    <t>AC or DC</t>
+  </si>
+  <si>
+    <t>Enable_Parcitipation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The branches can be listed in arbitrary order.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for power flow analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discretization Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samping frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linearization Times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discre Damping Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectFeedthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zbranch = R+wL+1/(wC+G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self branch HAS TO be GC.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutual branch HAS TO be RL.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All self branch HAT TO be set, even with a very small value of G.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The transformer is added between FromBus and Zbranch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_SimulinkModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_PlotPole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_PlotAdmittance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheets summaries advanced settings for the toolbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Power (VA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Voltage (V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes basic settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_PrintOutput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Flow Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area No.</t>
-  </si>
-  <si>
-    <t>AC or DC</t>
-  </si>
-  <si>
-    <t>Enable_Parcitipation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the apparatuses connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,12 +631,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -671,10 +671,10 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
         <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -783,23 +783,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -865,22 +865,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -890,7 +890,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -904,16 +904,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -950,47 +950,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1013,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1033,8 +1033,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1047,11 +1047,11 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="1">
         <v>0.02</v>
@@ -1088,17 +1088,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <f>B4*1000</f>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1151,17 +1151,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C331B8-60BC-4C8E-94AF-DC61FCD14D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D8A46-32D8-4DCF-AF9A-D4FBEB97D570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -843,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +940,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1054,7 +1054,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C331B8-60BC-4C8E-94AF-DC61FCD14D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0BFA0F-9177-4CA2-8BAB-CC842C51E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,8 +262,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Vdc (pu)</t>
+  </si>
+  <si>
+    <t>Cdc (pu)</t>
+  </si>
+  <si>
+    <t>wL (pu)</t>
+  </si>
+  <si>
+    <t>R (pu)</t>
+  </si>
+  <si>
+    <t>BW vdc (Hz)</t>
+  </si>
+  <si>
+    <t>BW PLL (Hz)</t>
+  </si>
+  <si>
+    <t>BW idq (Hz)</t>
   </si>
 </sst>
 </file>
@@ -762,10 +779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -792,58 +809,83 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>2.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>1.25</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>0.05</v>
       </c>
-      <c r="F5" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F6" s="2">
+        <f>E6/10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2">
-        <v>250</v>
+      <c r="I6" s="2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +982,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1024,11 +1066,11 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f>D11/5</f>
-        <v>0.06</v>
+        <f>D11/10</f>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,27 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,7 +1163,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1204,7 +1226,7 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C331B8-60BC-4C8E-94AF-DC61FCD14D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38348366-C9D6-4271-8885-A8B4647B2374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>Parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -703,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -729,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -741,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -765,7 +761,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -834,7 +830,8 @@
         <v>0.05</v>
       </c>
       <c r="F5" s="2">
-        <v>1E-3</v>
+        <f>E5/10</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
@@ -937,10 +934,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1024,11 +1021,11 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f>D11/5</f>
-        <v>0.06</v>
+        <f>D11/10</f>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1037,29 +1034,6 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
         <v>1</v>
       </c>
     </row>
@@ -1141,7 +1115,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1204,7 +1178,7 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GflInverterInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C331B8-60BC-4C8E-94AF-DC61FCD14D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD1541-24DA-4203-80BB-48BAE73A4136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -732,7 +732,7 @@
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -843,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1204,7 +1204,7 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
